--- a/Pitches/Burndown chart.xlsx
+++ b/Pitches/Burndown chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evens\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evens\project-software-engineering-groep_7\Pitches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2791A63-70CB-45C9-A6CC-E6A70433B04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD17988-4F3A-4EB6-921F-82864A58A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D58C9794-3079-4F57-B1AE-B2B6D4ABBCD7}"/>
   </bookViews>
@@ -89,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,20 +112,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,11 +127,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,7 +246,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$3:$A$67</c:f>
+              <c:f>Blad1!$A$2:$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
@@ -458,7 +446,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$D$3:$D$67</c:f>
+              <c:f>Blad1!$D$2:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -684,7 +672,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$3:$A$67</c:f>
+              <c:f>Blad1!$A$2:$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
@@ -884,7 +872,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$E$3:$E$67</c:f>
+              <c:f>Blad1!$E$2:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1853,15 +1841,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2186,10 +2174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4657277F-AA33-4B0D-902D-D6AA169B0F48}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2199,84 +2188,100 @@
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="23.109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45586</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <f>D2-B3</f>
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <f>ROUND($E$2-($E$2/63*1), 2)</f>
+        <v>98.41</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>100</v>
-      </c>
-      <c r="E3" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>45586</v>
+        <v>45587</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <f>D3-B4</f>
+        <f t="shared" ref="D4:D65" si="0">D3-B4</f>
         <v>100</v>
       </c>
       <c r="E4" s="1">
-        <f>ROUND($E$3-($E$3/63*1), 2)</f>
-        <v>98.41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*2), 2)</f>
+        <v>96.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D66" si="0">D4-B5</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5" s="1">
-        <f>ROUND($E$3-($E$3/63*2), 2)</f>
-        <v>96.83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*3), 2)</f>
+        <v>95.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>45588</v>
+        <v>45589</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2285,13 +2290,13 @@
         <v>100</v>
       </c>
       <c r="E6" s="1">
-        <f>ROUND($E$3-($E$3/63*3), 2)</f>
-        <v>95.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*4), 2)</f>
+        <v>93.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2300,13 +2305,13 @@
         <v>100</v>
       </c>
       <c r="E7" s="1">
-        <f>ROUND($E$3-($E$3/63*4), 2)</f>
-        <v>93.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*5), 2)</f>
+        <v>92.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>45590</v>
+        <v>45591</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2315,13 +2320,13 @@
         <v>100</v>
       </c>
       <c r="E8" s="1">
-        <f>ROUND($E$3-($E$3/63*5), 2)</f>
-        <v>92.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*6), 2)</f>
+        <v>90.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>45591</v>
+        <v>45592</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2330,13 +2335,13 @@
         <v>100</v>
       </c>
       <c r="E9" s="1">
-        <f>ROUND($E$3-($E$3/63*6), 2)</f>
-        <v>90.48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E9" si="1">ROUND($E$2-($E$2/63*2), 2)</f>
+        <v>96.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>45592</v>
+        <v>45593</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2345,13 +2350,13 @@
         <v>100</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E6:E67" si="1">ROUND($E$3-($E$3/63*2), 2)</f>
-        <v>96.83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*7), 2)</f>
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2360,13 +2365,13 @@
         <v>100</v>
       </c>
       <c r="E11" s="1">
-        <f>ROUND($E$3-($E$3/63*7), 2)</f>
-        <v>88.89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*8), 2)</f>
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2375,13 +2380,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="1">
-        <f>ROUND($E$3-($E$3/63*8), 2)</f>
-        <v>87.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*9), 2)</f>
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2390,13 +2395,13 @@
         <v>100</v>
       </c>
       <c r="E13" s="1">
-        <f>ROUND($E$3-($E$3/63*9), 2)</f>
-        <v>85.71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*10), 2)</f>
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2405,13 +2410,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="1">
-        <f>ROUND($E$3-($E$3/63*10), 2)</f>
-        <v>84.13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*11), 2)</f>
+        <v>82.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>45597</v>
+        <v>45598</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2420,13 +2425,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="1">
-        <f>ROUND($E$3-($E$3/63*11), 2)</f>
-        <v>82.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <f>ROUND($E$2-($E$2/63*12), 2)</f>
+        <v>80.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>45598</v>
+        <v>45599</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2435,13 +2440,13 @@
         <v>100</v>
       </c>
       <c r="E16" s="1">
-        <f>ROUND($E$3-($E$3/63*12), 2)</f>
-        <v>80.95</v>
+        <f>ROUND($E$2-($E$2/63*13), 2)</f>
+        <v>79.37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>45599</v>
+        <v>45600</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2450,13 +2455,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="1">
-        <f>ROUND($E$3-($E$3/63*13), 2)</f>
-        <v>79.37</v>
+        <f>ROUND($E$2-($E$2/63*14), 2)</f>
+        <v>77.78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>45600</v>
+        <v>45601</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2465,13 +2470,13 @@
         <v>100</v>
       </c>
       <c r="E18" s="1">
-        <f>ROUND($E$3-($E$3/63*14), 2)</f>
-        <v>77.78</v>
+        <f>ROUND($E$2-($E$2/63*15), 2)</f>
+        <v>76.19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2480,13 +2485,13 @@
         <v>100</v>
       </c>
       <c r="E19" s="1">
-        <f>ROUND($E$3-($E$3/63*15), 2)</f>
-        <v>76.19</v>
+        <f>ROUND($E$2-($E$2/63*16), 2)</f>
+        <v>74.599999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2495,13 +2500,13 @@
         <v>100</v>
       </c>
       <c r="E20" s="1">
-        <f>ROUND($E$3-($E$3/63*16), 2)</f>
-        <v>74.599999999999994</v>
+        <f>ROUND($E$2-($E$2/63*17), 2)</f>
+        <v>73.02</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2510,13 +2515,13 @@
         <v>100</v>
       </c>
       <c r="E21" s="1">
-        <f>ROUND($E$3-($E$3/63*17), 2)</f>
-        <v>73.02</v>
+        <f>ROUND($E$2-($E$2/63*18), 2)</f>
+        <v>71.430000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2525,13 +2530,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="1">
-        <f>ROUND($E$3-($E$3/63*18), 2)</f>
-        <v>71.430000000000007</v>
+        <f>ROUND($E$2-($E$2/63*19), 2)</f>
+        <v>69.84</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2540,13 +2545,13 @@
         <v>100</v>
       </c>
       <c r="E23" s="1">
-        <f>ROUND($E$3-($E$3/63*19), 2)</f>
-        <v>69.84</v>
+        <f>ROUND($E$2-($E$2/63*20), 2)</f>
+        <v>68.25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>45606</v>
+        <v>45607</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2555,13 +2560,13 @@
         <v>100</v>
       </c>
       <c r="E24" s="1">
-        <f>ROUND($E$3-($E$3/63*20), 2)</f>
-        <v>68.25</v>
+        <f>ROUND($E$2-($E$2/63*21), 2)</f>
+        <v>66.67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2570,13 +2575,13 @@
         <v>100</v>
       </c>
       <c r="E25" s="1">
-        <f>ROUND($E$3-($E$3/63*21), 2)</f>
-        <v>66.67</v>
+        <f>ROUND($E$2-($E$2/63*22), 2)</f>
+        <v>65.08</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2585,13 +2590,13 @@
         <v>100</v>
       </c>
       <c r="E26" s="1">
-        <f>ROUND($E$3-($E$3/63*22), 2)</f>
-        <v>65.08</v>
+        <f>ROUND($E$2-($E$2/63*23), 2)</f>
+        <v>63.49</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2600,13 +2605,13 @@
         <v>100</v>
       </c>
       <c r="E27" s="1">
-        <f>ROUND($E$3-($E$3/63*23), 2)</f>
-        <v>63.49</v>
+        <f>ROUND($E$2-($E$2/63*24), 2)</f>
+        <v>61.9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2615,13 +2620,13 @@
         <v>100</v>
       </c>
       <c r="E28" s="1">
-        <f>ROUND($E$3-($E$3/63*24), 2)</f>
-        <v>61.9</v>
+        <f>ROUND($E$2-($E$2/63*25), 2)</f>
+        <v>60.32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2630,13 +2635,13 @@
         <v>100</v>
       </c>
       <c r="E29" s="1">
-        <f>ROUND($E$3-($E$3/63*25), 2)</f>
-        <v>60.32</v>
+        <f>ROUND($E$2-($E$2/63*26), 2)</f>
+        <v>58.73</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2645,13 +2650,13 @@
         <v>100</v>
       </c>
       <c r="E30" s="1">
-        <f>ROUND($E$3-($E$3/63*26), 2)</f>
-        <v>58.73</v>
+        <f>ROUND($E$2-($E$2/63*27), 2)</f>
+        <v>57.14</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>45613</v>
+        <v>45614</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2660,13 +2665,13 @@
         <v>100</v>
       </c>
       <c r="E31" s="1">
-        <f>ROUND($E$3-($E$3/63*27), 2)</f>
-        <v>57.14</v>
+        <f>ROUND($E$2-($E$2/63*28), 2)</f>
+        <v>55.56</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2675,13 +2680,13 @@
         <v>100</v>
       </c>
       <c r="E32" s="1">
-        <f>ROUND($E$3-($E$3/63*28), 2)</f>
-        <v>55.56</v>
+        <f>ROUND($E$2-($E$2/63*29), 2)</f>
+        <v>53.97</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2690,13 +2695,13 @@
         <v>100</v>
       </c>
       <c r="E33" s="1">
-        <f>ROUND($E$3-($E$3/63*29), 2)</f>
-        <v>53.97</v>
+        <f>ROUND($E$2-($E$2/63*30), 2)</f>
+        <v>52.38</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2705,13 +2710,13 @@
         <v>100</v>
       </c>
       <c r="E34" s="1">
-        <f>ROUND($E$3-($E$3/63*30), 2)</f>
-        <v>52.38</v>
+        <f>ROUND($E$2-($E$2/63*31), 2)</f>
+        <v>50.79</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2720,13 +2725,13 @@
         <v>100</v>
       </c>
       <c r="E35" s="1">
-        <f>ROUND($E$3-($E$3/63*31), 2)</f>
-        <v>50.79</v>
+        <f>ROUND($E$2-($E$2/63*32), 2)</f>
+        <v>49.21</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>45618</v>
+        <v>45619</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2735,13 +2740,13 @@
         <v>100</v>
       </c>
       <c r="E36" s="1">
-        <f>ROUND($E$3-($E$3/63*32), 2)</f>
-        <v>49.21</v>
+        <f>ROUND($E$2-($E$2/63*33), 2)</f>
+        <v>47.62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>45619</v>
+        <v>45620</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2750,13 +2755,13 @@
         <v>100</v>
       </c>
       <c r="E37" s="1">
-        <f>ROUND($E$3-($E$3/63*33), 2)</f>
-        <v>47.62</v>
+        <f>ROUND($E$2-($E$2/63*34), 2)</f>
+        <v>46.03</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2765,13 +2770,13 @@
         <v>100</v>
       </c>
       <c r="E38" s="1">
-        <f>ROUND($E$3-($E$3/63*34), 2)</f>
-        <v>46.03</v>
+        <f>ROUND($E$2-($E$2/63*35), 2)</f>
+        <v>44.44</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2780,13 +2785,13 @@
         <v>100</v>
       </c>
       <c r="E39" s="1">
-        <f>ROUND($E$3-($E$3/63*35), 2)</f>
-        <v>44.44</v>
+        <f>ROUND($E$2-($E$2/63*36), 2)</f>
+        <v>42.86</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2795,13 +2800,13 @@
         <v>100</v>
       </c>
       <c r="E40" s="1">
-        <f>ROUND($E$3-($E$3/63*36), 2)</f>
-        <v>42.86</v>
+        <f>ROUND($E$2-($E$2/63*37), 2)</f>
+        <v>41.27</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2810,13 +2815,13 @@
         <v>100</v>
       </c>
       <c r="E41" s="1">
-        <f>ROUND($E$3-($E$3/63*37), 2)</f>
-        <v>41.27</v>
+        <f>ROUND($E$2-($E$2/63*38), 2)</f>
+        <v>39.68</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2825,13 +2830,13 @@
         <v>100</v>
       </c>
       <c r="E42" s="1">
-        <f>ROUND($E$3-($E$3/63*38), 2)</f>
-        <v>39.68</v>
+        <f>ROUND($E$2-($E$2/63*39), 2)</f>
+        <v>38.1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>45625</v>
+        <v>45626</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2840,13 +2845,13 @@
         <v>100</v>
       </c>
       <c r="E43" s="1">
-        <f>ROUND($E$3-($E$3/63*39), 2)</f>
-        <v>38.1</v>
+        <f>ROUND($E$2-($E$2/63*40), 2)</f>
+        <v>36.51</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>45626</v>
+        <v>45627</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2855,13 +2860,13 @@
         <v>100</v>
       </c>
       <c r="E44" s="1">
-        <f>ROUND($E$3-($E$3/63*40), 2)</f>
-        <v>36.51</v>
+        <f>ROUND($E$2-($E$2/63*41), 2)</f>
+        <v>34.92</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2870,13 +2875,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="1">
-        <f>ROUND($E$3-($E$3/63*41), 2)</f>
-        <v>34.92</v>
+        <f>ROUND($E$2-($E$2/63*42), 2)</f>
+        <v>33.33</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2885,13 +2890,13 @@
         <v>100</v>
       </c>
       <c r="E46" s="1">
-        <f>ROUND($E$3-($E$3/63*42), 2)</f>
-        <v>33.33</v>
+        <f>ROUND($E$2-($E$2/63*43), 2)</f>
+        <v>31.75</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2900,13 +2905,13 @@
         <v>100</v>
       </c>
       <c r="E47" s="1">
-        <f>ROUND($E$3-($E$3/63*43), 2)</f>
-        <v>31.75</v>
+        <f>ROUND($E$2-($E$2/63*44), 2)</f>
+        <v>30.16</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2915,13 +2920,13 @@
         <v>100</v>
       </c>
       <c r="E48" s="1">
-        <f>ROUND($E$3-($E$3/63*44), 2)</f>
-        <v>30.16</v>
+        <f>ROUND($E$2-($E$2/63*45), 2)</f>
+        <v>28.57</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2930,13 +2935,13 @@
         <v>100</v>
       </c>
       <c r="E49" s="1">
-        <f>ROUND($E$3-($E$3/63*45), 2)</f>
-        <v>28.57</v>
+        <f>ROUND($E$2-($E$2/63*46), 2)</f>
+        <v>26.98</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>45632</v>
+        <v>45633</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2945,13 +2950,13 @@
         <v>100</v>
       </c>
       <c r="E50" s="1">
-        <f>ROUND($E$3-($E$3/63*46), 2)</f>
-        <v>26.98</v>
+        <f>ROUND($E$2-($E$2/63*47), 2)</f>
+        <v>25.4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2960,13 +2965,13 @@
         <v>100</v>
       </c>
       <c r="E51" s="1">
-        <f>ROUND($E$3-($E$3/63*47), 2)</f>
-        <v>25.4</v>
+        <f>ROUND($E$2-($E$2/63*48), 2)</f>
+        <v>23.81</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>45634</v>
+        <v>45635</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2975,13 +2980,13 @@
         <v>100</v>
       </c>
       <c r="E52" s="1">
-        <f>ROUND($E$3-($E$3/63*48), 2)</f>
-        <v>23.81</v>
+        <f>ROUND($E$2-($E$2/63*49), 2)</f>
+        <v>22.22</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2990,13 +2995,13 @@
         <v>100</v>
       </c>
       <c r="E53" s="1">
-        <f>ROUND($E$3-($E$3/63*49), 2)</f>
-        <v>22.22</v>
+        <f>ROUND($E$2-($E$2/63*50), 2)</f>
+        <v>20.63</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3005,13 +3010,13 @@
         <v>100</v>
       </c>
       <c r="E54" s="1">
-        <f>ROUND($E$3-($E$3/63*50), 2)</f>
-        <v>20.63</v>
+        <f>ROUND($E$2-($E$2/63*51), 2)</f>
+        <v>19.05</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3020,13 +3025,13 @@
         <v>100</v>
       </c>
       <c r="E55" s="1">
-        <f>ROUND($E$3-($E$3/63*51), 2)</f>
-        <v>19.05</v>
+        <f>ROUND($E$2-($E$2/63*52), 2)</f>
+        <v>17.46</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3035,13 +3040,13 @@
         <v>100</v>
       </c>
       <c r="E56" s="1">
-        <f>ROUND($E$3-($E$3/63*52), 2)</f>
-        <v>17.46</v>
+        <f>ROUND($E$2-($E$2/63*53), 2)</f>
+        <v>15.87</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3050,13 +3055,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="1">
-        <f>ROUND($E$3-($E$3/63*53), 2)</f>
-        <v>15.87</v>
+        <f>ROUND($E$2-($E$2/63*54), 2)</f>
+        <v>14.29</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3065,13 +3070,13 @@
         <v>100</v>
       </c>
       <c r="E58" s="1">
-        <f>ROUND($E$3-($E$3/63*54), 2)</f>
-        <v>14.29</v>
+        <f>ROUND($E$2-($E$2/63*55), 2)</f>
+        <v>12.7</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>45641</v>
+        <v>45642</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3080,13 +3085,13 @@
         <v>100</v>
       </c>
       <c r="E59" s="1">
-        <f>ROUND($E$3-($E$3/63*55), 2)</f>
-        <v>12.7</v>
+        <f>ROUND($E$2-($E$2/63*56), 2)</f>
+        <v>11.11</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3095,13 +3100,13 @@
         <v>100</v>
       </c>
       <c r="E60" s="1">
-        <f>ROUND($E$3-($E$3/63*56), 2)</f>
-        <v>11.11</v>
+        <f>ROUND($E$2-($E$2/63*57), 2)</f>
+        <v>9.52</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3110,13 +3115,13 @@
         <v>100</v>
       </c>
       <c r="E61" s="1">
-        <f>ROUND($E$3-($E$3/63*57), 2)</f>
-        <v>9.52</v>
+        <f>ROUND($E$2-($E$2/63*58), 2)</f>
+        <v>7.94</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3125,13 +3130,13 @@
         <v>100</v>
       </c>
       <c r="E62" s="1">
-        <f>ROUND($E$3-($E$3/63*58), 2)</f>
-        <v>7.94</v>
+        <f>ROUND($E$2-($E$2/63*59), 2)</f>
+        <v>6.35</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3140,13 +3145,13 @@
         <v>100</v>
       </c>
       <c r="E63" s="1">
-        <f>ROUND($E$3-($E$3/63*59), 2)</f>
-        <v>6.35</v>
+        <f>ROUND($E$2-($E$2/63*60), 2)</f>
+        <v>4.76</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3155,13 +3160,13 @@
         <v>100</v>
       </c>
       <c r="E64" s="1">
-        <f>ROUND($E$3-($E$3/63*60), 2)</f>
-        <v>4.76</v>
+        <f>ROUND($E$2-($E$2/63*61), 2)</f>
+        <v>3.17</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>45647</v>
+        <v>45648</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3170,43 +3175,28 @@
         <v>100</v>
       </c>
       <c r="E65" s="1">
-        <f>ROUND($E$3-($E$3/63*61), 2)</f>
-        <v>3.17</v>
+        <f>ROUND($E$2-($E$2/63*62), 2)</f>
+        <v>1.59</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>45648</v>
+        <v>45649</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1">
-        <f t="shared" si="0"/>
+        <f>D65-B66</f>
         <v>100</v>
       </c>
       <c r="E66" s="1">
-        <f>ROUND($E$3-($E$3/63*62), 2)</f>
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>45649</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1">
-        <f>D66-B67</f>
-        <v>100</v>
-      </c>
-      <c r="E67" s="1">
-        <f>ROUND($E$3-($E$3/63*63), 2)</f>
+        <f>ROUND($E$2-($E$2/63*63), 2)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
